--- a/spreadsheet/macrofree/azure_storage_checklist.en.xlsx
+++ b/spreadsheet/macrofree/azure_storage_checklist.en.xlsx
@@ -2745,7 +2745,7 @@
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Leverage Resource Graph Explorer (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) to find storage accounts which allow anonymous blob access.</t>
+          <t>Anonymous access may present a security risk. We recommend that you disable anonymous access for optimal security. Disallowing anonymous access helps to prevent data breaches caused by undesired anonymous access.</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
